--- a/inst/extdata/scenario_parameters.xlsx
+++ b/inst/extdata/scenario_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\pkgs\hpmicrosimr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA41D4-78F4-46AD-9BF4-42259A880219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E2EC4A-AA69-4654-BCE9-20C84949F6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="262">
   <si>
     <t>category</t>
   </si>
@@ -729,30 +729,15 @@
     <t>€/hour</t>
   </si>
   <si>
-    <t>gas boiler efficiency</t>
-  </si>
-  <si>
-    <t>oil boiler efficiency</t>
-  </si>
-  <si>
     <t>electric boiler efficiency</t>
   </si>
   <si>
     <t>wood stove or boiler efficiency</t>
   </si>
   <si>
-    <t>heat_pump_system_efficiency</t>
-  </si>
-  <si>
-    <t>gas_system_efficiency</t>
-  </si>
-  <si>
     <t>solid_fuel_system_efficiency</t>
   </si>
   <si>
-    <t>oil_system_efficiency</t>
-  </si>
-  <si>
     <t>electricity_system_efficiency</t>
   </si>
   <si>
@@ -886,6 +871,63 @@
   </si>
   <si>
     <t>better_energy_introduction</t>
+  </si>
+  <si>
+    <t>oil boiler shape parameter</t>
+  </si>
+  <si>
+    <t>oil_system_beta</t>
+  </si>
+  <si>
+    <t>electricity_system_beta</t>
+  </si>
+  <si>
+    <t>gas ber shape parameter</t>
+  </si>
+  <si>
+    <t>gas_system_beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heat pump shape parameter</t>
+  </si>
+  <si>
+    <t>electric heating shape parameter</t>
+  </si>
+  <si>
+    <t>heat_pump_system_beta</t>
+  </si>
+  <si>
+    <t>gas/oil boiler efficiency</t>
+  </si>
+  <si>
+    <t>boiler_efficiency_2005</t>
+  </si>
+  <si>
+    <t>boiler_efficiency_2010</t>
+  </si>
+  <si>
+    <t>boiler_efficiency_2015</t>
+  </si>
+  <si>
+    <t>condensing boilers</t>
+  </si>
+  <si>
+    <t>non-condensing boilers</t>
+  </si>
+  <si>
+    <t>SEAI field trial</t>
+  </si>
+  <si>
+    <t>solid_fuel_system_beta</t>
+  </si>
+  <si>
+    <t>solid fuel system shape parameter</t>
+  </si>
+  <si>
+    <t>heat_pump_cop_2020</t>
+  </si>
+  <si>
+    <t>heat_pump_cop_2010</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1100,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -1085,7 +1127,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7"/>
@@ -1852,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8E1679-ADB0-42D7-8103-5D0EB0C9F50E}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,10 +2086,10 @@
         <v>139</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="13">
         <v>150</v>
@@ -2062,10 +2103,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D12" s="14">
         <v>130</v>
@@ -2079,10 +2120,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" s="14">
         <v>200</v>
@@ -2096,10 +2137,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D14" s="14">
         <v>70</v>
@@ -2113,10 +2154,10 @@
         <v>139</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D15" s="15">
         <v>120</v>
@@ -2130,19 +2171,19 @@
         <v>139</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D16" s="14">
         <v>69.8</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,19 +2191,19 @@
         <v>139</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D17" s="14">
         <v>0.66700000000000004</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,13 +2214,13 @@
         <v>154</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="D18" s="12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2187,16 +2228,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D19" s="12">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2204,16 +2248,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="D20" s="12">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,16 +2268,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D21" s="12">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2238,220 +2288,234 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="E24" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D25" s="16">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D26" s="16">
         <v>12</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D27" s="16">
         <v>17</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D28" s="16">
         <v>12</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="C29" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="16">
         <v>25</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E29" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="E30" s="12"/>
+      <c r="A30" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="E31" s="12"/>
+      <c r="A31" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="A32" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="A33" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="16">
+        <v>3</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="E34" s="12"/>
+      <c r="A34" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="17">
+        <v>2</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D35" s="12">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="E35" s="12"/>
     </row>
@@ -2460,13 +2524,13 @@
         <v>172</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D36" s="12">
-        <v>35.4</v>
+        <v>11.8</v>
       </c>
       <c r="E36" s="12"/>
     </row>
@@ -2475,13 +2539,13 @@
         <v>172</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D37" s="12">
-        <v>35.4</v>
+        <v>11.8</v>
       </c>
       <c r="E37" s="12"/>
     </row>
@@ -2490,13 +2554,13 @@
         <v>172</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D38" s="12">
-        <v>35.4</v>
+        <v>11.8</v>
       </c>
       <c r="E38" s="12"/>
     </row>
@@ -2505,13 +2569,13 @@
         <v>172</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D39" s="12">
-        <v>35.4</v>
+        <v>13.2</v>
       </c>
       <c r="E39" s="12"/>
     </row>
@@ -2520,13 +2584,13 @@
         <v>172</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="D40" s="12">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
       <c r="E40" s="12"/>
     </row>
@@ -2535,13 +2599,13 @@
         <v>172</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="D41" s="12">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
       <c r="E41" s="12"/>
     </row>
@@ -2550,13 +2614,13 @@
         <v>172</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="D42" s="12">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
       <c r="E42" s="12"/>
     </row>
@@ -2565,13 +2629,13 @@
         <v>172</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="D43" s="12">
-        <v>0.4</v>
+        <v>35.4</v>
       </c>
       <c r="E43" s="12"/>
     </row>
@@ -2580,13 +2644,13 @@
         <v>172</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D44" s="12">
-        <v>11.4</v>
+        <v>35.4</v>
       </c>
       <c r="E44" s="12"/>
     </row>
@@ -2595,13 +2659,13 @@
         <v>172</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D45" s="12">
-        <v>11.4</v>
+        <v>35.4</v>
       </c>
       <c r="E45" s="12"/>
     </row>
@@ -2610,310 +2674,415 @@
         <v>172</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D46" s="12">
-        <v>11.4</v>
+        <v>35.4</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B54" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D54" s="12">
         <v>11.4</v>
       </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D55" s="20">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D56" s="20">
         <v>0.23</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B57" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="20">
+        <v>2018.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="20">
+        <v>2022.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="20">
+        <v>2015.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="21">
-        <v>2018.3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="D61" s="20">
+        <v>2024.3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="21">
-        <v>2022.15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="B62" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="20">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B63" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="21">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="21">
-        <v>2015.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="21">
-        <v>2024.3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="21">
+      <c r="D63" s="20">
         <v>2040</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="21">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="22">
-        <v>100</v>
-      </c>
-      <c r="E57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="22">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="22">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.27033795990919401</v>
-      </c>
-      <c r="E60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="8">
-        <v>8.0685220845966698E-3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="8">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="8">
-        <v>3.7169338814298597E-2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0.8</v>
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="21">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="21">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="21">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0.27033795990919401</v>
+      </c>
+      <c r="E67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="8">
+        <v>8.0685220845966698E-3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="8">
+        <v>3.7169338814298597E-2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="8">
         <v>2000</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" t="s">
         <v>124</v>
       </c>
     </row>
